--- a/biology/Botanique/Fraise/Fraise.xlsx
+++ b/biology/Botanique/Fraise/Fraise.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La fraise est un petit fruit rouge issu des fraisiers, espèces de plantes herbacées appartenant au genre Fragaria (famille des Rosacées), dont plusieurs variétés sont cultivées. La fraise est, en terme botanique, un faux-fruit, les vrais fruits étant les petits akènes qui pointent à sa surface.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D’abord freise (XIIe siècle), issu du latin fragum[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D’abord freise (XIIe siècle), issu du latin fragum.
 La fraise fait appel à des paillages épais, d'où le nom vernaculaire en anglais de strawberry, la « baie de paille »).[réf. nécessaire]
 </t>
         </is>
@@ -544,16 +558,15 @@
           <t>Biologie, botanique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Ce fruit rouge est botaniquement parlant un faux-fruit ; il s'agit en réalité d'un réceptacle charnu sur lequel sont disposés régulièrement des akènes dans des alvéoles plus ou moins profondes. La fraise est donc un polyakène.
-La fraise fait partie des 6 % environ de végétaux qui existent avec une forme mâle et une forme femelle. Elle se présente d’ailleurs sous trois formes : mâle, femelle et combinée[2]. Les fleurs femelles ne portent pas d'anthères[2].
-On a récemment montré que les gènes qui déterminent le sexe d'un plant de fraisier peuvent être positionnés en plusieurs endroits très différents du génome (lequel s'inscrit dans 56 chromosomes, organisés en 7 groupes de 8 chromosomes ; à titre de comparaison l'homme n'a « que » 46 chromosomes, organisés en 23 paires)[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce fruit rouge est botaniquement parlant un faux-fruit ; il s'agit en réalité d'un réceptacle charnu sur lequel sont disposés régulièrement des akènes dans des alvéoles plus ou moins profondes. La fraise est donc un polyakène.
+La fraise fait partie des 6 % environ de végétaux qui existent avec une forme mâle et une forme femelle. Elle se présente d’ailleurs sous trois formes : mâle, femelle et combinée. Les fleurs femelles ne portent pas d'anthères.
+On a récemment montré que les gènes qui déterminent le sexe d'un plant de fraisier peuvent être positionnés en plusieurs endroits très différents du génome (lequel s'inscrit dans 56 chromosomes, organisés en 7 groupes de 8 chromosomes ; à titre de comparaison l'homme n'a « que » 46 chromosomes, organisés en 23 paires).
 Les fraises du commerce sont des hybrides cultivés, assez éloignés des fraises sauvages, sélectionnés en fonction du goût, de la taille, de la facilité à être cultivés, cueillis, conservés et transportés, etc.
-Autres fruits appelés fraises
-Bien que le terme fraise se réfère exclusivement au genre  Fragaria, celui-ci peut également être employé par extension à d'autres fruits dont l'espèce porte, à tort, le nom vernaculaire de fraiser.
-Fraise de Chine : fruit de Myrica rubra souvent confondu avec ceux de l'arbousier ;
-Fraise d'Inde : fruit de Potentilla indica, ressemblant à la fraise des bois comme d'autres fruits du genre Potentilla, sans intérêt alimentaire.</t>
+</t>
         </is>
       </c>
     </row>
@@ -578,23 +591,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Historique</t>
+          <t>Biologie, botanique</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">En Europe et en Amérique du Nord, les fruits de l’espèce Fragaria vesca, le fraisier des bois, sont de petite taille. Ils sont connus et appréciés depuis l'Antiquité par les Romains qui les consommaient et les utilisaient dans leurs produits cosmétiques en raison de leur odeur agréable. Le fraisier est cultivé dans les jardins européens vers le XIVe siècle.
-Le fraisier musqué est connu pour ses fruits petits d'une saveur musquée unique, que les connaisseurs donnent comme supérieurs à la fraise des jardins. Il est cultivé depuis le XVIe siècle[3]. Le premier cultivar connu du genre Fragaria appartient à cette espèce avec Le chapiron nommé en 1576.
-Le fraisier vert a été très peu cultivé car ses fruits sont moins appréciés du fait de leur acidité plus forte que les espèces ci-dessus. Cependant il a fait l'objet de cueillette pour la consommation personnelle.
-Vers la fin du XVIe siècle l'explorateur Jacques Cartier rapporte du Canada en France des plants de fraisier de Virginie (Fragaria virginiana Mill. subsp. virginiana)[3]. L'espèce intéresse assez par ses fruits parfumés pour être cultivée pour le commerce surtout en Grande-Bretagne et aux États-Unis. Encore de nos jours, il existe une production industrielle faible mais suivie en Grande-Bretagne. C'est la première fraise à mûrir.
-En 1714, l'officier du génie maritime Amédée François Frézier[4] rapporte en fraude du Chili plusieurs plants de Blanches du Chili, dont cinq survivent au voyage[5], des fraisiers à gros fruits blancs cultivés là-bas depuis longtemps par les Amérindiens, le (Fragaria chiloensis subsp. chiloensis f. chiloensis Staudt). Ces fraisiers se révélèrent être uniquement des plants femelles ne pouvant pas donner de fruits sans plant mâle[3]. Quelques décennies plus tard, après importation de plants fertiles, la culture de blanches du Chili a été tentée en Grande-Bretagne (en 1824 trois variétés sont décrites) mais elle est peu résistante au froid et, sous le climat anglais, il est rarement possible de l'amener à fructifier et, même alors, il est difficile de la faire mûrir correctement. La culture de blanches du Chili a été relancée au début des années 2000 mais les quantités produites restent marginales[3].
-Vers 1740, le botaniste Antoine Nicolas Duchesne observe que de beaux fruits sont obtenus lorsqu'un fraisier du Chili est cultivé près d'un fraisier de Virginie[3]. Ce croisement spontané, qui se produit notamment en Bretagne, en Angleterre et aux Pays-Bas, est à l'origine d'un nouvel hybride qui associe la saveur de Fragaria virginiana et la grosseur du fruit de Fragaria chiloensis, et qui possède un parfum d'ananas à l'origine de son nom botanique : Fragaria ×ananassa Duch[3]. C'est de cet hybride que provient l’essentiel des variétés de fraises à gros « fruits » que l’on cultive désormais.
-C'est en Angleterre que seront en premier créées plusieurs variétés issues de cette hybridation, et qu'en sera développée la culture industrielle. L'Angleterre dominera longtemps le marché européen de la fraise, en concurrence avec Plougastel en France.
-En 1740, la ville de Plougastel (près de Brest), déjà productrice de fraisier des bois, devient le premier lieu de production de cette nouvelle espèce dite « fraise de Plougastel »[4]. Cette culture devient la spécialité de la commune, qui produisait près du quart de la production française de fraises au début du XXe siècle.
-Vers 1940, la Californie devient le premier producteur mondial de fraises.
-En Belgique, la région de Wépion connaît un essor semblable dès le milieu du XXe siècle. L’activité se développa surtout dans l’entre-deux-guerres et atteindra son apogée dans les années 1950-1960. Leur réputation est telle que les fraises de Wépion sont commercialisées aux Halles de Paris, et ensuite au marché de Rungis qui leur succédera. Au début des années 1970, l’activité décline et ce n'est qu’à la fin des années 1990 qu’on observe un regain. Le secteur se professionnalise et la criée de Wépion devient la plate-forme de commercialisation d’un fruit cueilli à maturité, vendu via des circuits courts.
-Une variété légèrement plus petite est obtenue dans le Sud de la France à partir de croisements avec des fraisiers nains méditerranéens, moins exigeants en eau, la gariguette, variété de fraise la plus vendue en France et issue de travaux de l'Institut national de la recherche agronomique[6]. Elle a été mise au point par Georgette Risser, ingénieure à l'Inra, en 1976, dans le laboratoire de Montfavet[7].
-</t>
+          <t>Autres fruits appelés fraises</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Bien que le terme fraise se réfère exclusivement au genre  Fragaria, celui-ci peut également être employé par extension à d'autres fruits dont l'espèce porte, à tort, le nom vernaculaire de fraiser.
+Fraise de Chine : fruit de Myrica rubra souvent confondu avec ceux de l'arbousier ;
+Fraise d'Inde : fruit de Potentilla indica, ressemblant à la fraise des bois comme d'autres fruits du genre Potentilla, sans intérêt alimentaire.</t>
         </is>
       </c>
     </row>
@@ -619,48 +629,95 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Europe et en Amérique du Nord, les fruits de l’espèce Fragaria vesca, le fraisier des bois, sont de petite taille. Ils sont connus et appréciés depuis l'Antiquité par les Romains qui les consommaient et les utilisaient dans leurs produits cosmétiques en raison de leur odeur agréable. Le fraisier est cultivé dans les jardins européens vers le XIVe siècle.
+Le fraisier musqué est connu pour ses fruits petits d'une saveur musquée unique, que les connaisseurs donnent comme supérieurs à la fraise des jardins. Il est cultivé depuis le XVIe siècle. Le premier cultivar connu du genre Fragaria appartient à cette espèce avec Le chapiron nommé en 1576.
+Le fraisier vert a été très peu cultivé car ses fruits sont moins appréciés du fait de leur acidité plus forte que les espèces ci-dessus. Cependant il a fait l'objet de cueillette pour la consommation personnelle.
+Vers la fin du XVIe siècle l'explorateur Jacques Cartier rapporte du Canada en France des plants de fraisier de Virginie (Fragaria virginiana Mill. subsp. virginiana). L'espèce intéresse assez par ses fruits parfumés pour être cultivée pour le commerce surtout en Grande-Bretagne et aux États-Unis. Encore de nos jours, il existe une production industrielle faible mais suivie en Grande-Bretagne. C'est la première fraise à mûrir.
+En 1714, l'officier du génie maritime Amédée François Frézier rapporte en fraude du Chili plusieurs plants de Blanches du Chili, dont cinq survivent au voyage, des fraisiers à gros fruits blancs cultivés là-bas depuis longtemps par les Amérindiens, le (Fragaria chiloensis subsp. chiloensis f. chiloensis Staudt). Ces fraisiers se révélèrent être uniquement des plants femelles ne pouvant pas donner de fruits sans plant mâle. Quelques décennies plus tard, après importation de plants fertiles, la culture de blanches du Chili a été tentée en Grande-Bretagne (en 1824 trois variétés sont décrites) mais elle est peu résistante au froid et, sous le climat anglais, il est rarement possible de l'amener à fructifier et, même alors, il est difficile de la faire mûrir correctement. La culture de blanches du Chili a été relancée au début des années 2000 mais les quantités produites restent marginales.
+Vers 1740, le botaniste Antoine Nicolas Duchesne observe que de beaux fruits sont obtenus lorsqu'un fraisier du Chili est cultivé près d'un fraisier de Virginie. Ce croisement spontané, qui se produit notamment en Bretagne, en Angleterre et aux Pays-Bas, est à l'origine d'un nouvel hybride qui associe la saveur de Fragaria virginiana et la grosseur du fruit de Fragaria chiloensis, et qui possède un parfum d'ananas à l'origine de son nom botanique : Fragaria ×ananassa Duch. C'est de cet hybride que provient l’essentiel des variétés de fraises à gros « fruits » que l’on cultive désormais.
+C'est en Angleterre que seront en premier créées plusieurs variétés issues de cette hybridation, et qu'en sera développée la culture industrielle. L'Angleterre dominera longtemps le marché européen de la fraise, en concurrence avec Plougastel en France.
+En 1740, la ville de Plougastel (près de Brest), déjà productrice de fraisier des bois, devient le premier lieu de production de cette nouvelle espèce dite « fraise de Plougastel ». Cette culture devient la spécialité de la commune, qui produisait près du quart de la production française de fraises au début du XXe siècle.
+Vers 1940, la Californie devient le premier producteur mondial de fraises.
+En Belgique, la région de Wépion connaît un essor semblable dès le milieu du XXe siècle. L’activité se développa surtout dans l’entre-deux-guerres et atteindra son apogée dans les années 1950-1960. Leur réputation est telle que les fraises de Wépion sont commercialisées aux Halles de Paris, et ensuite au marché de Rungis qui leur succédera. Au début des années 1970, l’activité décline et ce n'est qu’à la fin des années 1990 qu’on observe un regain. Le secteur se professionnalise et la criée de Wépion devient la plate-forme de commercialisation d’un fruit cueilli à maturité, vendu via des circuits courts.
+Une variété légèrement plus petite est obtenue dans le Sud de la France à partir de croisements avec des fraisiers nains méditerranéens, moins exigeants en eau, la gariguette, variété de fraise la plus vendue en France et issue de travaux de l'Institut national de la recherche agronomique. Elle a été mise au point par Georgette Risser, ingénieure à l'Inra, en 1976, dans le laboratoire de Montfavet.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fraise</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fraise</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fraises se développent à partir du réceptacle charnu des fleurs. Ce sont donc des faux fruits. De forme ovoïde oblongues plus ou moins arrondies, elles sont de couleur rouge ou jaune blanchâtre selon les variétés.
 Fraise &amp; FraisierLes akènes, véritables fruits du fraisier.Coupe longitudinale d'une fraise.Jeunes plantules de fraisiers se développant à partir des akènes sur des fraises mûres.
 Au sens botanique du terme, les « vrais » fruits des fraisiers sont en fait les akènes, ces petits grains secs disposés régulièrement dans des alvéoles plus ou moins profondes sur les fraises. Ils sont de couleur verte à brune, et renferment chacun soit un ovule (non fécondé), soit une graine (ovule fécondé) qui contient elle-même un germe.
-Le corps charnu des fraises formé à partir du réceptacle floral (induvie hypertrophié sous l'effet des auxines) est consommé avec ou sans les akènes. Ce sont les akènes qui produisent une hormone permettant au faux-fruit de grossir[8].
-Le poids des fraises et des akènes est lié au cultivar, mais aussi au mode de pollinisation. Les pollinisations croisées produisent des fraises et des akènes plus gros que les fruits obtenus par autofécondation[9]. Les abeilles en butinant favorisent les pollinisations croisées, plus que l'action du vent ou que l'auto-pollinisation. Elles permettent d'obtenir des fruits plus gros et plus fermes[10]. 
-La plus grosse fraise du monde fut cultivée par M. Ariel Chahi, maraicher israélien en février 2021. Elle faisait 18 centimètres de long, 4 de large, 34 de circonférence pour un poids total de 289 grammes[11].
+Le corps charnu des fraises formé à partir du réceptacle floral (induvie hypertrophié sous l'effet des auxines) est consommé avec ou sans les akènes. Ce sont les akènes qui produisent une hormone permettant au faux-fruit de grossir.
+Le poids des fraises et des akènes est lié au cultivar, mais aussi au mode de pollinisation. Les pollinisations croisées produisent des fraises et des akènes plus gros que les fruits obtenus par autofécondation. Les abeilles en butinant favorisent les pollinisations croisées, plus que l'action du vent ou que l'auto-pollinisation. Elles permettent d'obtenir des fruits plus gros et plus fermes. 
+La plus grosse fraise du monde fut cultivée par M. Ariel Chahi, maraicher israélien en février 2021. Elle faisait 18 centimètres de long, 4 de large, 34 de circonférence pour un poids total de 289 grammes.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Fraise</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Fraise</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Parmi les nombreuses variétés existantes (plus de 600[3]), on peut citer : 
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parmi les nombreuses variétés existantes (plus de 600), on peut citer : 
 89 98 1
 Alba
 Amandine
@@ -671,7 +728,7 @@
 Candiss
 Capella super herdam
 Capriss
-Capron royal[12]
+Capron royal
 Chambly
 Chandler
 Charlotte
@@ -713,7 +770,7 @@
 Merveilleuse de Vottem
 Mount Everest
 Noire de Milmort
-Noire de San Mauro[13]
+Noire de San Mauro
 Naimette
 L’Or du Rhin
 Nova Gento
@@ -736,18 +793,87 @@
 Sweet Charlie
 Vivarosa (fleur rose)
 Valeta
-Plus de 35 variétés sont inscrites au catalogue français des espèces et variétés[14]. Actuellement, il n'y a  pas de Catalogue européen pour les variétés de plants de fraisiers.
-Quelques caractéristiques de variétés remarquables
-Cirafine : rouge vif, très brillante, forme allongée, légèrement aromatique, sucrée et acidulée ;
+Plus de 35 variétés sont inscrites au catalogue français des espèces et variétés. Actuellement, il n'y a  pas de Catalogue européen pour les variétés de plants de fraisiers.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Fraise</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fraise</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Variétés</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Quelques caractéristiques de variétés remarquables</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Cirafine : rouge vif, très brillante, forme allongée, légèrement aromatique, sucrée et acidulée ;
 Cigaline : forme allongée, très brillante, aromatique, sucrée et acidulée ;
 Darselect : rouge brique à pourpre, brillance moyenne à forte, forme conique, longue ou courte, ferme et juteuse ;
 Dream : rouge vif, brillante, forme conique, moyennement longue, fruitée avec une pointe d'arômes fraises des bois, juteuse peu acide ;
 Elsanta : rouge orangé à rouge brique, brillance moyenne à forte, forme conique, moyennement acide, ferme ;
 Gariguette : rouge vif, très brillante, forme allongée, aromatique, sucrée et acidulée, précoce ;
 Mara des bois : rouge vif, brillance moyenne à forte, forme irrégulière, moyennement acide, très parfumée, très aromatique ;
-Seascape : assez grosse, bonne brillance, arrondie, légèrement aromatique, sucrée.
-Quelques améliorations variétales
-Arômes</t>
+Seascape : assez grosse, bonne brillance, arrondie, légèrement aromatique, sucrée.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Fraise</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fraise</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Variétés</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Quelques améliorations variétales</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Arômes</t>
         </is>
       </c>
     </row>
